--- a/cypress/fixtures/data.xlsx
+++ b/cypress/fixtures/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/kororo/repository/dcceew-safeguard-rules-interface/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E88BE-8DFD-E14E-95E0-6360BBCC9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F583CD-84A9-B04F-88C8-5BDF860C67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HVAC1_C" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="HVAC1_E_CLAUSES" sheetId="5" r:id="rId3"/>
     <sheet name="bca-climate-zone" sheetId="2" r:id="rId4"/>
     <sheet name="postcode" sheetId="3" r:id="rId5"/>
+    <sheet name="HVAC1_C (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="HVAC1_E (2)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="101">
   <si>
     <t>Test ID</t>
   </si>
@@ -759,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -955,142 +957,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3800</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2541</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>2700</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2800</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1101,10 +967,1162 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="45.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="47.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="48.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="36.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="54" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192BC781-DD9B-41E3-9287-CC7A042F5490}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="165.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="256" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2786CED2-7BEF-4054-842D-DA68BCCB8D75}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2431</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2890</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2898</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2339</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2342</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2839</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2359</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2475</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2368</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2624</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC151F-5CD6-4BE1-BB25-71A93C50E291}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2431</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2890</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2898</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2339</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2342</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2839</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2359</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2475</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2368</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2624</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3421</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3519</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4173</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4596</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9C1EEA-4954-8E44-9208-CE3F5C52B99D}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>2800</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>245</v>
+      </c>
+      <c r="J3">
+        <v>22.01</v>
+      </c>
+      <c r="K3">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>2795</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2541</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>2700</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EBEADA-E54E-3C4F-9EFA-55641646C71D}">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+  </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1409,511 +2427,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192BC781-DD9B-41E3-9287-CC7A042F5490}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="165.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="272" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="272" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="272" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="256" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2786CED2-7BEF-4054-842D-DA68BCCB8D75}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2431</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2890</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2898</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2339</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2342</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2379</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2839</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2354</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2359</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2475</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2350</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2368</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2580</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2365</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2624</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC151F-5CD6-4BE1-BB25-71A93C50E291}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2431</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2890</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2898</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2339</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2342</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2379</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2839</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2354</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2359</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2475</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2350</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2368</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2580</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2365</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2624</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3421</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3519</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>4173</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>4596</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1930,15 +2443,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001F1E234AE2DD64CAC7C4C2A8D43AD9F" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6fdfd0681d808c54b86c2d268d3bba2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ca5ba3f9-dfeb-4931-84ba-86796a0d6823" xmlns:ns3="0a6f95da-2a98-4fc3-a63b-269af51b7506" xmlns:ns4="9ea08096-1d6a-4225-8886-dcb3dd04c4bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f084bf1f5a61c27721f169ac85480e0" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2227,6 +2731,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5E14B5-D6EF-401C-82ED-6CA5F26974B2}">
   <ds:schemaRefs>
@@ -2240,14 +2753,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A69F337-BFDC-4B9A-9645-ACD2998E51C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D779FCF-00EF-4E40-96D9-8E341306CAB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2266,4 +2771,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A69F337-BFDC-4B9A-9645-ACD2998E51C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cypress/fixtures/data.xlsx
+++ b/cypress/fixtures/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/kororo/repository/dcceew-safeguard-rules-interface/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F583CD-84A9-B04F-88C8-5BDF860C67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E145D9-6CC7-9941-B43B-B5E565B35D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,7 +764,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
